--- a/setting_example.xlsx
+++ b/setting_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\Streamlit2\221220\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA7057-E16B-449C-B78F-6DC7EDC898B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F258AF8-30FF-4356-A9F4-09A78F4AB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1217,7 +1217,7 @@
         <v>340</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>

--- a/setting_example.xlsx
+++ b/setting_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\Streamlit2\221220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\Streamlit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F258AF8-30FF-4356-A9F4-09A78F4AB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F715D5-AF2C-418E-A032-59565752DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1217,7 +1217,7 @@
         <v>340</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>

--- a/setting_example.xlsx
+++ b/setting_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\Streamlit2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\複合材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F715D5-AF2C-418E-A032-59565752DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7398C1B-453F-49E5-A020-B3294E70F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="量的変数" sheetId="2" r:id="rId2"/>
     <sheet name="制約条件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1184,7 +1195,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1220,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
